--- a/Output/Modelling/XGBoost/Tables/exclude_previous_model_comparison_df.xlsx
+++ b/Output/Modelling/XGBoost/Tables/exclude_previous_model_comparison_df.xlsx
@@ -476,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.3468</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.3855</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -498,23 +498,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.898</v>
+        <v>0.763</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.8975</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.8980</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.8962</v>
+        <v>0.7575</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9848</v>
+        <v>0.9597</v>
       </c>
     </row>
     <row r="4">
@@ -524,23 +524,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8157</v>
+        <v>0.9034</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.8167</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.8157</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.8131</v>
+        <v>0.9016999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9705</v>
+        <v>0.9857</v>
       </c>
     </row>
     <row r="5">

--- a/Output/Modelling/XGBoost/Tables/exclude_previous_model_comparison_df.xlsx
+++ b/Output/Modelling/XGBoost/Tables/exclude_previous_model_comparison_df.xlsx
@@ -476,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.3468</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.3855</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -502,12 +502,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.7679</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.7630</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -528,12 +528,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.9040</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.9034</t>
         </is>
       </c>
       <c r="E4" t="n">

--- a/Output/Modelling/XGBoost/Tables/exclude_previous_model_comparison_df.xlsx
+++ b/Output/Modelling/XGBoost/Tables/exclude_previous_model_comparison_df.xlsx
@@ -546,7 +546,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Majority Baseline</t>
+          <t>Most Common Class Baseline</t>
         </is>
       </c>
       <c r="B5" t="n">
